--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4512" windowWidth="14340" xWindow="384" yWindow="24"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_Z" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_Z" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -179,6 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,68 +227,68 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,10 +302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -462,7 +463,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -471,13 +472,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -487,7 +488,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -496,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,12 +516,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -551,7 +552,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -570,7 +571,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -582,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -591,10 +592,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="46.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -639,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -664,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -675,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -687,13 +688,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -702,12 +703,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="25.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -858,13 +859,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -873,19 +874,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -926,7 +927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -961,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -996,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
@@ -1173,16 +1174,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3:E8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1191,20 +1192,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -1288,8 +1289,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4512" windowWidth="14340" xWindow="384" yWindow="24"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI2WeeklyCat_Z" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI2WeeklyCat_Z" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -173,13 +178,15 @@
   </si>
   <si>
     <t>TwoWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,71 +234,74 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -302,10 +312,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -340,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +383,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,7 +507,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -472,13 +516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -488,7 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -497,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,12 +560,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -552,7 +596,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -571,7 +615,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -583,22 +627,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="46.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -626,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -640,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -654,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -665,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -676,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -688,30 +732,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="82.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="25.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -734,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -751,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -768,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -786,7 +830,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -804,7 +848,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -822,7 +866,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -840,7 +884,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -859,34 +903,34 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -927,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -962,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -997,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1102,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1137,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
@@ -1174,38 +1218,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3:E8"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="61.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -1249,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1316,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>46</v>
@@ -1289,8 +1333,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -186,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +289,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -738,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -909,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,13 +970,13 @@
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>20</v>
@@ -994,7 +991,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>43</v>
@@ -1008,13 +1005,13 @@
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>20</v>
@@ -1029,7 +1026,7 @@
         <v>42</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>43</v>
@@ -1043,13 +1040,13 @@
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>20</v>
@@ -1064,7 +1061,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>43</v>
@@ -1078,13 +1075,13 @@
     </row>
     <row r="5" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>20</v>
@@ -1099,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>43</v>
@@ -1113,13 +1110,13 @@
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>20</v>
@@ -1134,7 +1131,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>43</v>
@@ -1148,13 +1145,13 @@
     </row>
     <row r="7" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>20</v>
@@ -1169,7 +1166,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>43</v>
@@ -1183,13 +1180,13 @@
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>20</v>
@@ -1204,7 +1201,7 @@
         <v>42</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>43</v>
@@ -1218,8 +1215,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1227,10 +1224,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1295,13 +1292,13 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
@@ -1316,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>46</v>
@@ -1333,7 +1330,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -87,27 +87,6 @@
     <t>Two Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -171,13 +150,34 @@
     <t>13</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>TwoWeekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 487</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 488</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 489</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 490</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 491</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 492</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 493</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NI2WCZ EMPLOYER</t>
+  </si>
+  <si>
+    <t>NI2WCZ_Payroll</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,9 +255,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -273,18 +270,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -669,10 +662,10 @@
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -683,10 +676,10 @@
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -739,12 +732,12 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" style="5" customWidth="1" collapsed="1"/>
@@ -776,8 +769,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -793,8 +786,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
+      <c r="A3" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -810,8 +803,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
+      <c r="A4" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -828,8 +821,8 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
+      <c r="A5" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -846,8 +839,8 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
+      <c r="A6" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -864,8 +857,8 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
+      <c r="A7" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -882,8 +875,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
+      <c r="A8" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -909,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,289 +920,289 @@
     <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="K1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="K2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="G3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="I8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1217,9 +1210,10 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A8" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1227,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,37 +1242,37 @@
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -1290,47 +1284,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="B2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_Z" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_Z" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,61 +232,61 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -340,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,7 +498,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -506,13 +507,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -522,7 +523,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -540,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -550,12 +551,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -586,7 +587,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -605,7 +606,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -617,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -626,10 +627,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="46.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -674,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -699,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -710,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -722,13 +723,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -737,12 +738,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,13 +894,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -908,19 +909,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
@@ -961,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
@@ -996,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
@@ -1208,17 +1209,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A8" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3:E8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1227,20 +1228,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
@@ -1324,9 +1325,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatZ201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
